--- a/pred_ohlcv/54_23/2019-10-16 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-16 FAB ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -418,7 +418,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -441,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -464,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -3566,7 +3566,7 @@
         <v>6.27</v>
       </c>
       <c r="F139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -3589,7 +3589,7 @@
         <v>6.39</v>
       </c>
       <c r="F140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -3612,7 +3612,7 @@
         <v>6.39</v>
       </c>
       <c r="F141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -3681,7 +3681,7 @@
         <v>6.13</v>
       </c>
       <c r="F144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -5038,7 +5038,7 @@
         <v>5.75</v>
       </c>
       <c r="F203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -5061,7 +5061,7 @@
         <v>5.72</v>
       </c>
       <c r="F204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -5107,7 +5107,7 @@
         <v>5.69</v>
       </c>
       <c r="F206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -5130,7 +5130,7 @@
         <v>5.67</v>
       </c>
       <c r="F207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -5176,7 +5176,7 @@
         <v>5.9</v>
       </c>
       <c r="F209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -5294,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -5317,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>